--- a/medicine/Pharmacie/1882_en_santé_et_médecine/1882_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1882_en_santé_et_médecine/1882_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1882_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1882_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1882 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1882_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1882_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>13 février : le médecin français Jean-Martin Charcot présente ses travaux sur l'hystérie dans une communication à l'Académie des sciences intitulée « Sur les divers états nerveux déterminés par l'hypnotisation chez les hystériques »[1].
-24 mars : la découverte par le médecin et microbiologiste Robert Koch du bacille de la tuberculose est annoncée à la Société de physiologie de Berlin[2].
-28 mars : le pharmacien allemand Paul Carl Beiersdorf obtient un brevet pour un nouveau type de plâtre médical appelé Guttaperchapflastermulle[3].
-Décembre : lors d'un séjour à Messine, l'immunologiste Metchnikoff reconnaît la phagocytose comme une fonction anti-infectieuse exercée par les phagocytes[4]. Il rédige ses résultats le 1er mai 1883[5].
-Fondation de l'École de Nancy par le professeur Hippolyte Bernheim, le médecin de ville Ambroise-Auguste Liébeault, le physiologiste Henri-Étienne Beaunis et le juriste Jules Liégeois, en concurrence avec l'École de la Salpêtrière (Paris)[6]. L'hypnose entre dans le domaine médical.
-Heinrich Quincke décrit une forme d'œdème fulgurant[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>13 février : le médecin français Jean-Martin Charcot présente ses travaux sur l'hystérie dans une communication à l'Académie des sciences intitulée « Sur les divers états nerveux déterminés par l'hypnotisation chez les hystériques ».
+24 mars : la découverte par le médecin et microbiologiste Robert Koch du bacille de la tuberculose est annoncée à la Société de physiologie de Berlin.
+28 mars : le pharmacien allemand Paul Carl Beiersdorf obtient un brevet pour un nouveau type de plâtre médical appelé Guttaperchapflastermulle.
+Décembre : lors d'un séjour à Messine, l'immunologiste Metchnikoff reconnaît la phagocytose comme une fonction anti-infectieuse exercée par les phagocytes. Il rédige ses résultats le 1er mai 1883.
+Fondation de l'École de Nancy par le professeur Hippolyte Bernheim, le médecin de ville Ambroise-Auguste Liébeault, le physiologiste Henri-Étienne Beaunis et le juriste Jules Liégeois, en concurrence avec l'École de la Salpêtrière (Paris). L'hypnose entre dans le domaine médical.
+Heinrich Quincke décrit une forme d'œdème fulgurant.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1882_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1882_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5 novembre : David Wilkie (mort en 1938 d'un cancer de l'estomac[8]), chirurgien écossais.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>5 novembre : David Wilkie (mort en 1938 d'un cancer de l'estomac), chirurgien écossais.
 7 décembre : Robert Debré (mort en 1978), médecin français, considéré comme l'un des fondateurs de la pédiatrie moderne.</t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1882_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1882_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
